--- a/week1/final test cases.xlsx
+++ b/week1/final test cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farid/Documents/folder1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farid/eclipse-workspace/week1/week1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5603A2F-7391-9142-B580-6DE3C1836B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1FBA52-D8BE-6B4B-AC37-8F5AC9DAFE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="9" xr2:uid="{6385A7FF-A589-DD41-8AF0-45708D2867B3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20580" activeTab="9" xr2:uid="{6385A7FF-A589-DD41-8AF0-45708D2867B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -982,6 +982,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,27 +1022,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,19 +1385,19 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1415,11 +1415,11 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1435,11 +1435,11 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1455,11 +1455,11 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1475,11 +1475,11 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1495,11 +1495,11 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA90ED6F-1FB6-C84B-90F9-C9319E4DE2C2}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,48 +1545,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1603,11 +1603,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1622,11 +1622,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1641,30 +1641,30 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1699,6 +1699,11 @@
     <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;Ctest case for w3shool
+</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1720,48 +1725,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1778,11 +1783,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1797,11 +1802,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1816,11 +1821,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
@@ -1835,11 +1840,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
@@ -1895,31 +1900,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11"/>
@@ -1927,19 +1932,19 @@
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1959,11 +1964,11 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1981,11 +1986,11 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
@@ -2003,11 +2008,11 @@
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
@@ -2025,11 +2030,11 @@
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
@@ -2421,48 +2426,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -2479,11 +2484,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
@@ -2498,11 +2503,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
@@ -2517,11 +2522,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
@@ -2536,11 +2541,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="19" t="s">
         <v>18</v>
       </c>
@@ -2555,11 +2560,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="21" t="s">
         <v>19</v>
       </c>
@@ -2601,48 +2606,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -2659,11 +2664,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
@@ -2678,11 +2683,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
@@ -2697,11 +2702,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="17" t="s">
         <v>17</v>
       </c>
@@ -2716,11 +2721,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
@@ -2735,11 +2740,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="17" t="s">
         <v>19</v>
       </c>
@@ -2782,48 +2787,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2840,11 +2845,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2859,11 +2864,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
@@ -2878,11 +2883,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2897,11 +2902,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
@@ -2916,11 +2921,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
@@ -2962,28 +2967,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="16" t="s">
@@ -2991,19 +2996,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -3020,11 +3025,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
@@ -3039,11 +3044,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
@@ -3058,11 +3063,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="17" t="s">
         <v>17</v>
       </c>
@@ -3077,11 +3082,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
@@ -3096,15 +3101,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="2"/>
     </row>
   </sheetData>
@@ -3135,48 +3140,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -3193,11 +3198,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
@@ -3212,11 +3217,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
@@ -3231,30 +3236,30 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
@@ -3308,48 +3313,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -3366,11 +3371,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
@@ -3385,11 +3390,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
@@ -3404,11 +3409,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="17" t="s">
         <v>17</v>
       </c>
@@ -3423,11 +3428,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
@@ -3442,11 +3447,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="18" t="s">
         <v>19</v>
       </c>
@@ -3461,11 +3466,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="21" t="s">
         <v>111</v>
       </c>
